--- a/2018_7/Q1/exe/result.xlsx
+++ b/2018_7/Q1/exe/result.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_165548" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_165442" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_190629" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_190410" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -17,7 +17,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>File_Name</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Run_Time</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>error_Felix_py3.py</t>
+  </si>
+  <si>
+    <t>Python3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>Passed:1Wrong:5</t>
+  </si>
+  <si>
+    <t>find_diff_Felix_py3.py</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>All 6 cases passed!</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32,12 +84,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -351,17 +410,80 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:A4"/>
+  <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="15"/>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
+    <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="6" min="6" width="50"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:1">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -375,17 +497,80 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:A4"/>
+  <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="4" min="4" width="20"/>
+    <col customWidth="1" max="5" min="5" width="20"/>
+    <col customWidth="1" max="6" min="6" width="20"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:1">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/2018_7/Q1/exe/result.xlsx
+++ b/2018_7/Q1/exe/result.xlsx
@@ -7,9 +7,13 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_190629" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_190410" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_211007" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_210523" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_210410" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_205948" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_190629" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_190410" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Index</t>
   </si>
@@ -46,22 +50,58 @@
     <t>10</t>
   </si>
   <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>Passed:1Wrong:5</t>
+  </si>
+  <si>
+    <t>find_diff_Felix_py3.py</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>All 6 cases passed!</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>Wrong:2</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>All 2 cases passed!</t>
+  </si>
+  <si>
     <t>406</t>
   </si>
   <si>
-    <t>Passed:1Wrong:5</t>
-  </si>
-  <si>
-    <t>find_diff_Felix_py3.py</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>414</t>
-  </si>
-  <si>
-    <t>All 6 cases passed!</t>
   </si>
   <si>
     <t>420</t>
@@ -418,6 +458,354 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="50"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="50"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="50"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="50"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
     <col customWidth="1" max="1" min="1" width="15"/>
     <col customWidth="1" max="2" min="2" width="50"/>
     <col customWidth="1" max="3" min="3" width="15"/>
@@ -460,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -480,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -491,7 +879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -547,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -567,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -578,7 +966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/2018_7/Q1/exe/result.xlsx
+++ b/2018_7/Q1/exe/result.xlsx
@@ -7,13 +7,16 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_211007" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_210523" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_210410" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_205948" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_190629" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_190410" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180709_110601" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180709_102752" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180709_101718" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_211007" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_210523" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_210410" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_205948" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_190629" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20180708_190410" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Index</t>
   </si>
@@ -50,28 +53,46 @@
     <t>10</t>
   </si>
   <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>1 Passed:(6), 5 Wrong:(1, 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>find_diff_Felix_py3.py</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>All 6 cases passed!</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>Passed:1Wrong:5</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
     <t>391</t>
   </si>
   <si>
-    <t>Passed:1Wrong:5</t>
-  </si>
-  <si>
-    <t>find_diff_Felix_py3.py</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>387</t>
   </si>
   <si>
-    <t>All 6 cases passed!</t>
-  </si>
-  <si>
     <t>394</t>
-  </si>
-  <si>
-    <t>379</t>
   </si>
   <si>
     <t>381</t>
@@ -531,6 +552,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -590,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -607,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -674,10 +713,10 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -694,7 +733,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -758,13 +797,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -778,13 +817,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -793,6 +832,267 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="50"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="50"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="50"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -848,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -868,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -879,7 +1179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -935,10 +1235,10 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -955,7 +1255,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -964,22 +1264,4 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>